--- a/Man/家系图表模板.xlsx
+++ b/Man/家系图表模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gd\Man\Man\Man\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:540008_{5BFBA68F-8E18-4166-B9E1-0F6CF4ED917D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ED5592B2-9C16-4453-8C73-2A210E03B19A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="14955" windowHeight="13170"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="14955" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -102,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -129,17 +129,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -203,81 +192,72 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,20 +596,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="24" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="16" customWidth="1"/>
     <col min="3" max="3" width="6.125" style="8" customWidth="1"/>
     <col min="4" max="4" width="9.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="16" customWidth="1"/>
     <col min="6" max="6" width="7.25" style="8" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.875" style="8" customWidth="1"/>
@@ -690,11 +670,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="4"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -707,121 +687,223 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
+    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" s="20" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="1" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="18" t="s">
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="19"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
+      <c r="M10" s="20"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="3"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="3"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="3"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="J11" s="3"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="3"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="3"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="3"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A11:O11"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="N10:O10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -831,7 +913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -845,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
